--- a/Excel Files/Challenges/Excel BI/Excel Challenges/Excel Challenge 1.xlsx
+++ b/Excel Files/Challenges/Excel BI/Excel Challenges/Excel Challenge 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogwarts299-my.sharepoint.com/personal/hermione_hogwarts299_onmicrosoft_com/Documents/Documents/Learnings/Excel BI Challenges/Excel Challenges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{F4BBB4B0-B7BE-415F-8214-325F4778354C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:11_{F4BBB4B0-B7BE-415F-8214-325F4778354C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7BD278D-A5D2-4406-862D-7E2AB487BF16}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
